--- a/va_facility_data_2025-02-20/Fort Knox VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Knox%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Knox VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Knox%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R953379dda2124ecd981d9f540b03976d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf0dd0cfc87064edda2722466b7cfe753"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbda58ec13c0e4469aadc15fda6999134"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5f43f829b68c4adcadd3571b25e795fb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R83f3fbf076bd40cf865af1d9b53c78fc"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb9fa15e9b9e748edb55d7c0493c780d7"/>
   </x:sheets>
 </x:workbook>
 </file>
